--- a/notes/Entities.xlsx
+++ b/notes/Entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\john\projects\recsys\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0A0E1F-335B-42DF-A787-2194B5450023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA47D7E-6F5D-4921-BCB8-123F65AEC27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="2820" windowWidth="20115" windowHeight="15600" xr2:uid="{6095F59E-ED63-42E1-8A4B-D25F1D6209B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="21000" xr2:uid="{6095F59E-ED63-42E1-8A4B-D25F1D6209B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve"> int</t>
   </si>
   <si>
-    <t>step_id</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>filepath</t>
   </si>
   <si>
-    <t>archived</t>
-  </si>
-  <si>
     <t>created</t>
   </si>
   <si>
@@ -98,76 +92,37 @@
     <t>data</t>
   </si>
   <si>
-    <t>is_archived</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pd.DataFrame</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>id,</t>
-  </si>
-  <si>
-    <t>source,</t>
-  </si>
-  <si>
-    <t>env,</t>
-  </si>
-  <si>
-    <t>name,</t>
-  </si>
-  <si>
-    <t>description,</t>
-  </si>
-  <si>
-    <t>data,</t>
-  </si>
-  <si>
-    <t>stage,</t>
-  </si>
-  <si>
-    <t>version,</t>
-  </si>
-  <si>
-    <t>cost,</t>
-  </si>
-  <si>
-    <t>nrows,</t>
-  </si>
-  <si>
-    <t>ncols,</t>
-  </si>
-  <si>
-    <t>null_counts,</t>
-  </si>
-  <si>
-    <t>memory_size_mb,</t>
-  </si>
-  <si>
-    <t>filepath,</t>
-  </si>
-  <si>
-    <t>task_id,</t>
-  </si>
-  <si>
-    <t>step_id,</t>
-  </si>
-  <si>
-    <t>created,</t>
-  </si>
-  <si>
-    <t>is_archived,</t>
-  </si>
-  <si>
-    <t>archived,</t>
-  </si>
-  <si>
-    <t>self.</t>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>INTEGER PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>TEXT NOT NULL,</t>
+  </si>
+  <si>
+    <t>TEXT,</t>
+  </si>
+  <si>
+    <t>INTEGER NOT NULL,</t>
+  </si>
+  <si>
+    <t>INTEGER DEFAULT (0)</t>
+  </si>
+  <si>
+    <t>TEXT DEFAULT (datetime('now'))</t>
+  </si>
+  <si>
+    <t>=row[</t>
+  </si>
+  <si>
+    <t>],</t>
   </si>
 </sst>
 </file>
@@ -520,510 +475,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7550EC7-6AEF-4F48-B139-29EFE05CDA6B}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P1" sqref="P1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
+      <c r="E1" s="1" t="str">
+        <f>CONCATENATE(B1,C1,D1)</f>
+        <v>id:  int</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="str">
+        <f>CONCATENATE("SET ",B1," = ?, ")</f>
+        <v xml:space="preserve">SET id = ?, </v>
+      </c>
+      <c r="M1">
+        <f>A1-1</f>
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE(B1,N1,M1,O1)</f>
+        <v>id=row[0],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE(C2,B2,E2)</f>
-        <v>self.source,</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>CONCATENATE(B2,C2,D2)</f>
+        <v>name:  str</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>CONCATENATE("self.dto.",B2,",")</f>
+        <v>self.dto.name,</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M17" si="0">A2-1</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P17" si="1">CONCATENATE(B2,N2,M2,O2)</f>
+        <v>name=row[1],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1" t="str">
+        <f>CONCATENATE(B3,C3,D3)</f>
+        <v>description:  str</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F19" si="0">CONCATENATE(C3,B3,E3)</f>
-        <v>self.env,</v>
-      </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="2">CONCATENATE("self.dto.",B3,",")</f>
+        <v>self.dto.description,</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="1"/>
+        <v>description=row[2],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>self.name,</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E16" si="3">CONCATENATE(B4,C4,D4)</f>
+        <v>source:  str</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.source,</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>source=row[3],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>self.description,</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>env:  str</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.env,</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>env=row[4],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>self.data,</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>CONCATENATE(B6,C6,D6)</f>
+        <v>stage:  str</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.stage,</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>stage=row[5],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>self.stage,</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>CONCATENATE(B7,C7,D7)</f>
+        <v>version:  int</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.version,</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>version=row[6],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>self.version,</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>data:  pd.DataFrame</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.data,</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>data=row[7],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>self.cost,</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>cost:  int</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.cost,</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>cost=row[7],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>self.nrows,</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>nrows:  int</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.nrows,</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>nrows=row[8],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>self.ncols,</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ncols:  int</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.ncols,</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>ncols=row[9],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>self.null_counts,</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>null_counts:  int</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.null_counts,</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>null_counts=row[10],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>self.memory_size_mb,</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>memory_size_mb:  int</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.memory_size_mb,</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>memory_size_mb=row[11],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>self.filepath,</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>filepath:  str</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.filepath,</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>filepath=row[12],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>self.task_id,</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="str">
+        <f>CONCATENATE(B15,C15,D15)</f>
+        <v>task_id:  int</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.task_id,</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>task_id=row[13],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>self.step_id,</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>created:  datetime</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.created,</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>created=row[14],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>self.created,</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="E17" s="1" t="str">
+        <f t="shared" ref="E17" si="4">CONCATENATE(B17,C17,D17)</f>
+        <v>modified:  datetime</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>self.is_archived,</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>self.archived,</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>self.dto.modified,</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>modified=row[15],</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-    <sortCondition ref="A4:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G16">
+    <sortCondition ref="A8:A16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>